--- a/data/trans_orig/P78C4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B0D1FB-C23F-428C-82A9-51FF62724B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D7E5969-BF11-4732-A51E-8A3897E8B04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18A5FAE4-F0DC-4DEA-BED1-317175FBBC65}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5DDA87CF-3ADE-487D-ADBA-525AB10A1D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="72">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de las cuotas de seguros en 2023 (Tasa respuesta: 0,32%)</t>
   </si>
@@ -65,13 +65,13 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>23,66%</t>
+    <t>21,19%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,13 +86,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>76,34%</t>
+    <t>78,81%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -104,73 +104,73 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
   <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>55/64</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>55-64</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -179,73 +179,76 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>34,82%</t>
+    <t>33,78%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -660,8 +663,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57666417-7705-40A4-96EE-A66EAC0E7982}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869AF3B1-D646-4799-BA52-8B14F743456D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -781,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -809,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -830,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>6355</v>
+        <v>7055</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -858,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>6355</v>
+        <v>7055</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -879,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>8325</v>
+        <v>8952</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -907,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>8325</v>
+        <v>8952</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>17</v>
@@ -943,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>3037</v>
+        <v>2870</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -958,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>3037</v>
+        <v>2870</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1041,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>3037</v>
+        <v>2870</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>17</v>
@@ -1056,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>3037</v>
+        <v>2870</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>17</v>
@@ -1079,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2608</v>
+        <v>2499</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>23</v>
@@ -1094,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>840</v>
+        <v>781</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>24</v>
@@ -1109,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>3449</v>
+        <v>3280</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>26</v>
@@ -1130,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1456</v>
+        <v>1412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>29</v>
@@ -1145,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2616</v>
+        <v>2436</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>30</v>
@@ -1160,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>4072</v>
+        <v>3848</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -1181,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>4064</v>
+        <v>3911</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
@@ -1196,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>3456</v>
+        <v>3217</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>17</v>
@@ -1211,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>7521</v>
+        <v>7128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>17</v>
@@ -1234,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1350</v>
+        <v>1167</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>36</v>
@@ -1249,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>4348</v>
+        <v>4054</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1264,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>5698</v>
+        <v>5221</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>38</v>
@@ -1285,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1072</v>
+        <v>1033</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>40</v>
@@ -1315,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>1072</v>
+        <v>1033</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>42</v>
@@ -1336,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>2422</v>
+        <v>2200</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -1351,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>4348</v>
+        <v>4054</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>17</v>
@@ -1366,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="7">
-        <v>6770</v>
+        <v>6254</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>17</v>
@@ -1389,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2258</v>
+        <v>2194</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
@@ -1404,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1379</v>
+        <v>1296</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
@@ -1419,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3637</v>
+        <v>3490</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>13</v>
@@ -1491,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>2258</v>
+        <v>2194</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -1506,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>1379</v>
+        <v>1296</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>17</v>
@@ -1521,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>3637</v>
+        <v>3490</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>17</v>
@@ -1559,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1574,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -1595,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1214</v>
+        <v>1165</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
@@ -1625,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>1214</v>
+        <v>1165</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>51</v>
@@ -1646,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>1214</v>
+        <v>1165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -1661,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>17</v>
@@ -1676,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>1862</v>
+        <v>1759</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>17</v>
@@ -1690,55 +1693,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7">
-        <v>8187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>10252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
-      </c>
-      <c r="N22" s="7">
-        <v>18439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,49 +1744,43 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
-      </c>
-      <c r="D23" s="7">
-        <v>10097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
-      </c>
-      <c r="N23" s="7">
-        <v>12713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,63 +1789,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7756</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="7">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7">
+        <v>9597</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="7">
+        <v>19</v>
+      </c>
+      <c r="N25" s="7">
+        <v>17353</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10665</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2435</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="7">
+        <v>9</v>
+      </c>
+      <c r="N26" s="7">
+        <v>13100</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
-        <v>18284</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>18421</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="7">
         <v>15</v>
       </c>
-      <c r="I24" s="7">
-        <v>12868</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>12032</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="7">
         <v>28</v>
       </c>
-      <c r="N24" s="7">
-        <v>31152</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>70</v>
+      <c r="N27" s="7">
+        <v>30453</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
